--- a/trunk/test/sougouTESTschedule.xlsx
+++ b/trunk/test/sougouTESTschedule.xlsx
@@ -451,12 +451,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -494,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -673,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,13 +721,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -760,19 +760,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -781,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,43 +793,55 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -838,6 +850,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1683,9 +1700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FG127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20:D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1821,9 +1838,9 @@
       <c r="E2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="18"/>
@@ -1876,7 +1893,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="67"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -1937,7 +1954,7 @@
       <c r="E4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -2002,7 +2019,7 @@
       <c r="C5" s="32"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="18"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -2074,6 +2091,7 @@
         <v>71</v>
       </c>
       <c r="F6" s="18"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -2138,6 +2156,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="10"/>
       <c r="F7" s="18"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2210,7 +2229,7 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="48"/>
@@ -2275,7 +2294,7 @@
       <c r="D9" s="10"/>
       <c r="F9" s="18"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="48"/>
@@ -2349,9 +2368,9 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="77"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="18"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -2415,9 +2434,9 @@
       <c r="E11" s="10"/>
       <c r="F11" s="18"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="77"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="18"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2488,7 +2507,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="10"/>
       <c r="K12" s="18"/>
       <c r="L12" s="10"/>
@@ -2554,8 +2573,8 @@
       <c r="F13" s="18"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
       <c r="K13" s="18"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -2627,7 +2646,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="78"/>
       <c r="K14" s="18"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -2693,7 +2712,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="18"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -2763,7 +2782,7 @@
       <c r="E16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -3107,8 +3126,8 @@
       <c r="E21" s="10"/>
       <c r="F21" s="18"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="10"/>
       <c r="K21" s="18"/>
       <c r="L21" s="10"/>
@@ -3246,7 +3265,7 @@
       <c r="D23" s="9"/>
       <c r="F23" s="18"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="57"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="57"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
@@ -3342,7 +3361,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="57"/>
       <c r="K25" s="18"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -3371,7 +3390,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="62"/>
       <c r="K26" s="18"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -3392,7 +3411,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="75"/>
+      <c r="J27" s="74"/>
       <c r="K27" s="18"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -3453,7 +3472,7 @@
       <c r="E28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="68"/>
+      <c r="F28" s="67"/>
       <c r="K28" s="18"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3689,6 +3708,8 @@
       <c r="C33" s="33"/>
       <c r="D33" s="9"/>
       <c r="F33" s="18"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="6"/>
       <c r="K33" s="18"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -3795,7 +3816,7 @@
       <c r="C35" s="48"/>
       <c r="D35" s="9"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="58"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="58"/>
       <c r="K35" s="18"/>
       <c r="L35" s="10"/>
@@ -3855,7 +3876,8 @@
         <v>32</v>
       </c>
       <c r="F36" s="18"/>
-      <c r="I36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="6"/>
       <c r="K36" s="18"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -3905,7 +3927,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="9"/>
       <c r="F37" s="18"/>
-      <c r="I37" s="58"/>
+      <c r="H37" s="58"/>
       <c r="K37" s="18"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -3962,7 +3984,8 @@
         <v>32</v>
       </c>
       <c r="F38" s="18"/>
-      <c r="J38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="18"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -4012,7 +4035,7 @@
       <c r="C39" s="33"/>
       <c r="D39" s="9"/>
       <c r="F39" s="18"/>
-      <c r="J39" s="58"/>
+      <c r="I39" s="58"/>
       <c r="K39" s="18"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -4071,6 +4094,7 @@
         <v>32</v>
       </c>
       <c r="F40" s="18"/>
+      <c r="I40" s="41"/>
       <c r="K40" s="18"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -4120,6 +4144,8 @@
       <c r="C41" s="33"/>
       <c r="D41" s="9"/>
       <c r="F41" s="18"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="18"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -4181,7 +4207,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="81"/>
       <c r="K42" s="48"/>
     </row>
     <row r="43" spans="1:53" s="16" customFormat="1">
@@ -4191,7 +4217,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="J43" s="74"/>
       <c r="K43" s="64"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
@@ -4252,7 +4278,7 @@
       <c r="E44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="69"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -4401,6 +4427,7 @@
       <c r="C49" s="33"/>
       <c r="D49" s="9"/>
       <c r="F49" s="18"/>
+      <c r="H49" s="58"/>
       <c r="K49" s="48"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -4457,8 +4484,9 @@
         <v>70</v>
       </c>
       <c r="F50" s="18"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
       <c r="K50" s="48"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -4509,8 +4537,8 @@
       <c r="F51" s="18"/>
       <c r="G51" s="10"/>
       <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:53" s="9" customFormat="1">
@@ -4529,7 +4557,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="I52" s="82"/>
       <c r="J52" s="10"/>
       <c r="K52" s="48"/>
     </row>
@@ -4538,6 +4566,7 @@
       <c r="C53" s="33"/>
       <c r="D53" s="9"/>
       <c r="F53" s="18"/>
+      <c r="I53" s="58"/>
       <c r="K53" s="48"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
@@ -4597,7 +4626,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="82"/>
       <c r="K54" s="48"/>
     </row>
     <row r="55" spans="1:53" s="16" customFormat="1">
@@ -4607,7 +4636,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
+      <c r="J55" s="74"/>
       <c r="K55" s="48"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
@@ -4668,7 +4697,7 @@
       <c r="E56" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="70"/>
+      <c r="F56" s="69"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -4865,7 +4894,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="10"/>
       <c r="H61" s="57"/>
-      <c r="I61" s="10"/>
+      <c r="I61" s="57"/>
       <c r="J61" s="10"/>
       <c r="K61" s="48"/>
     </row>
@@ -5071,7 +5100,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="48"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -5123,7 +5152,7 @@
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
+      <c r="J67" s="74"/>
       <c r="K67" s="48"/>
     </row>
     <row r="68" spans="1:163">
@@ -5139,7 +5168,7 @@
       <c r="E68" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="71"/>
+      <c r="F68" s="70"/>
       <c r="K68" s="48"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
@@ -5353,7 +5382,7 @@
       </c>
       <c r="F72" s="18"/>
       <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
+      <c r="I72" s="6"/>
       <c r="K72" s="48"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -5404,7 +5433,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="10"/>
       <c r="H73" s="57"/>
-      <c r="I73" s="57"/>
+      <c r="I73" s="7"/>
       <c r="J73" s="10"/>
       <c r="K73" s="48"/>
     </row>
@@ -5423,9 +5452,9 @@
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="H74" s="50"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="50"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="48"/>
     </row>
     <row r="75" spans="1:163">
@@ -5433,7 +5462,9 @@
       <c r="C75" s="33"/>
       <c r="D75" s="9"/>
       <c r="F75" s="18"/>
-      <c r="J75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
       <c r="K75" s="48"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -5490,6 +5521,7 @@
         <v>88</v>
       </c>
       <c r="F76" s="18"/>
+      <c r="I76" s="43"/>
       <c r="K76" s="48"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
@@ -5539,6 +5571,7 @@
       <c r="C77" s="33"/>
       <c r="D77" s="9"/>
       <c r="F77" s="18"/>
+      <c r="I77" s="58"/>
       <c r="K77" s="48"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
@@ -5595,6 +5628,7 @@
         <v>88</v>
       </c>
       <c r="F78" s="18"/>
+      <c r="J78" s="43"/>
       <c r="K78" s="48"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
@@ -5647,7 +5681,7 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
+      <c r="J79" s="57"/>
       <c r="K79" s="48"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
@@ -5815,8 +5849,8 @@
       <c r="E80" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="76"/>
-      <c r="G80" s="74"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="73"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
@@ -5979,7 +6013,7 @@
       <c r="C81" s="33"/>
       <c r="D81" s="9"/>
       <c r="F81" s="59"/>
-      <c r="G81" s="10"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
@@ -6155,9 +6189,9 @@
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="74"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
       <c r="K82" s="48"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
@@ -6318,10 +6352,10 @@
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="19"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
       <c r="K83" s="48"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
